--- a/data/pca/factorExposure/factorExposure_2009-12-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-12-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.003586039785736843</v>
+        <v>0.01688819879011485</v>
       </c>
       <c r="C2">
-        <v>0.009615889453247026</v>
+        <v>-0.001176124677284083</v>
       </c>
       <c r="D2">
-        <v>0.0009370500908935355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.006194600040456354</v>
+      </c>
+      <c r="E2">
+        <v>0.0002227615292173001</v>
+      </c>
+      <c r="F2">
+        <v>-0.01137465749560705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.03041132453031916</v>
+        <v>0.09376257378723431</v>
       </c>
       <c r="C4">
-        <v>0.1222465656286088</v>
+        <v>-0.01580022534079207</v>
       </c>
       <c r="D4">
-        <v>0.01604499052262907</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08409635969833346</v>
+      </c>
+      <c r="E4">
+        <v>-0.02858746630110847</v>
+      </c>
+      <c r="F4">
+        <v>0.03081512264883194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03756940229570222</v>
+        <v>0.157301328708297</v>
       </c>
       <c r="C6">
-        <v>0.1107141274678186</v>
+        <v>-0.02526276294710334</v>
       </c>
       <c r="D6">
-        <v>-0.03435194266911652</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02309552584848683</v>
+      </c>
+      <c r="E6">
+        <v>-0.008972955181439137</v>
+      </c>
+      <c r="F6">
+        <v>0.04663763009928022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01044927366282731</v>
+        <v>0.06256981071431848</v>
       </c>
       <c r="C7">
-        <v>0.08042096661206892</v>
+        <v>0.0009009566410174576</v>
       </c>
       <c r="D7">
-        <v>-0.001682546180460069</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05136481500745012</v>
+      </c>
+      <c r="E7">
+        <v>-0.009448570264786228</v>
+      </c>
+      <c r="F7">
+        <v>0.04658466396402371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.002447074325082976</v>
+        <v>0.05712335086928883</v>
       </c>
       <c r="C8">
-        <v>0.06255064464568634</v>
+        <v>0.01334678796958733</v>
       </c>
       <c r="D8">
-        <v>-0.02275192336900425</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03344056772946062</v>
+      </c>
+      <c r="E8">
+        <v>-0.01762867481056298</v>
+      </c>
+      <c r="F8">
+        <v>-0.0282598699533598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02556739690138142</v>
+        <v>0.07123181600096394</v>
       </c>
       <c r="C9">
-        <v>0.1009290709265847</v>
+        <v>-0.01157227376537398</v>
       </c>
       <c r="D9">
-        <v>0.02297674988008569</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08596897961472694</v>
+      </c>
+      <c r="E9">
+        <v>-0.02297708332184396</v>
+      </c>
+      <c r="F9">
+        <v>0.04725633393977512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01148761193336291</v>
+        <v>0.09633978382638479</v>
       </c>
       <c r="C10">
-        <v>0.02765498754399597</v>
+        <v>-0.01954502041336977</v>
       </c>
       <c r="D10">
-        <v>-0.1305086549414228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1706648935478708</v>
+      </c>
+      <c r="E10">
+        <v>0.03658023438625412</v>
+      </c>
+      <c r="F10">
+        <v>-0.05337134284616326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.02970789213334987</v>
+        <v>0.08788280843803475</v>
       </c>
       <c r="C11">
-        <v>0.1071046409784917</v>
+        <v>-0.01111474350277055</v>
       </c>
       <c r="D11">
-        <v>0.03162396704385782</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1161289012241813</v>
+      </c>
+      <c r="E11">
+        <v>-0.04601843404485179</v>
+      </c>
+      <c r="F11">
+        <v>0.02152435955402109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02722402655418383</v>
+        <v>0.09196898232018461</v>
       </c>
       <c r="C12">
-        <v>0.116611803682021</v>
+        <v>-0.008179227924217422</v>
       </c>
       <c r="D12">
-        <v>0.03014331625283804</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1316759980907743</v>
+      </c>
+      <c r="E12">
+        <v>-0.04733567344053223</v>
+      </c>
+      <c r="F12">
+        <v>0.02546369942975395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.009208450507040424</v>
+        <v>0.04224988177625201</v>
       </c>
       <c r="C13">
-        <v>0.04267222504533733</v>
+        <v>-0.003577898388519144</v>
       </c>
       <c r="D13">
-        <v>0.02600067210837904</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05113250276671052</v>
+      </c>
+      <c r="E13">
+        <v>0.009226116568898022</v>
+      </c>
+      <c r="F13">
+        <v>0.002307710586893012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01603558355289663</v>
+        <v>0.02302141566718317</v>
       </c>
       <c r="C14">
-        <v>0.02391809767564692</v>
+        <v>-0.01399574328103901</v>
       </c>
       <c r="D14">
-        <v>-0.005453834088816447</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03312910554191559</v>
+      </c>
+      <c r="E14">
+        <v>-0.0170548605316195</v>
+      </c>
+      <c r="F14">
+        <v>0.0143782685636759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01045335802553113</v>
+        <v>0.03283744379859015</v>
       </c>
       <c r="C15">
-        <v>0.02938282933924526</v>
+        <v>-0.004988943892271874</v>
       </c>
       <c r="D15">
-        <v>0.01412852897576235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04518821545241666</v>
+      </c>
+      <c r="E15">
+        <v>-0.005981610037250585</v>
+      </c>
+      <c r="F15">
+        <v>0.02278522147845408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01889453552376426</v>
+        <v>0.07411621092540564</v>
       </c>
       <c r="C16">
-        <v>0.1094170321325139</v>
+        <v>-0.00222458013131825</v>
       </c>
       <c r="D16">
-        <v>0.01251902822756454</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1256575069232734</v>
+      </c>
+      <c r="E16">
+        <v>-0.06145027614066112</v>
+      </c>
+      <c r="F16">
+        <v>0.02436955703072203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03168038523729158</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003419403622664657</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01977803769896009</v>
+      </c>
+      <c r="E18">
+        <v>0.006610741577131782</v>
+      </c>
+      <c r="F18">
+        <v>-0.003502213086666903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01191746014255237</v>
+        <v>0.06106990812680903</v>
       </c>
       <c r="C20">
-        <v>0.06825032633382384</v>
+        <v>-0.0006655346367573729</v>
       </c>
       <c r="D20">
-        <v>-0.001894430033023912</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07659897631217553</v>
+      </c>
+      <c r="E20">
+        <v>-0.05561196623925489</v>
+      </c>
+      <c r="F20">
+        <v>0.02320288497734689</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01263633943256322</v>
+        <v>0.04046331615703166</v>
       </c>
       <c r="C21">
-        <v>0.02505167212771287</v>
+        <v>-0.006716357317920875</v>
       </c>
       <c r="D21">
-        <v>-0.0008592531897050492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03631558646400195</v>
+      </c>
+      <c r="E21">
+        <v>0.005927989414044225</v>
+      </c>
+      <c r="F21">
+        <v>-0.02406126790630282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.004837777146842815</v>
+        <v>0.04382523128161238</v>
       </c>
       <c r="C22">
-        <v>0.03071209631534444</v>
+        <v>-0.001232626760912494</v>
       </c>
       <c r="D22">
-        <v>-0.04181698713743421</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002693104632036182</v>
+      </c>
+      <c r="E22">
+        <v>-0.02903949848181943</v>
+      </c>
+      <c r="F22">
+        <v>-0.03451946208250827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.004825541367681622</v>
+        <v>0.04381081266870945</v>
       </c>
       <c r="C23">
-        <v>0.03064262531956807</v>
+        <v>-0.001228386120609693</v>
       </c>
       <c r="D23">
-        <v>-0.04189867386711681</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002697833927214816</v>
+      </c>
+      <c r="E23">
+        <v>-0.02924130352153288</v>
+      </c>
+      <c r="F23">
+        <v>-0.03448224665027923</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01921682755492597</v>
+        <v>0.08020161983371073</v>
       </c>
       <c r="C24">
-        <v>0.1131619707966182</v>
+        <v>-0.002670454518315248</v>
       </c>
       <c r="D24">
-        <v>0.02189420772153781</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1204307347132977</v>
+      </c>
+      <c r="E24">
+        <v>-0.04904450045787529</v>
+      </c>
+      <c r="F24">
+        <v>0.0257177036060563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.0246290319043915</v>
+        <v>0.08512502153637221</v>
       </c>
       <c r="C25">
-        <v>0.1163286579437351</v>
+        <v>-0.004914751627386897</v>
       </c>
       <c r="D25">
-        <v>0.01938170524119332</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1088327257098894</v>
+      </c>
+      <c r="E25">
+        <v>-0.03230056624749164</v>
+      </c>
+      <c r="F25">
+        <v>0.02649302684026968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02382871822928456</v>
+        <v>0.05756954545395197</v>
       </c>
       <c r="C26">
-        <v>0.05192574556331982</v>
+        <v>-0.01475773056452061</v>
       </c>
       <c r="D26">
-        <v>-0.02121079358334039</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03993532352003274</v>
+      </c>
+      <c r="E26">
+        <v>-0.02772736546460019</v>
+      </c>
+      <c r="F26">
+        <v>-0.009757729731122921</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.004363290243222856</v>
+        <v>0.1407704441973257</v>
       </c>
       <c r="C28">
-        <v>0.03055394426387509</v>
+        <v>-0.0188914708884095</v>
       </c>
       <c r="D28">
-        <v>-0.1840652713864753</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2635453741748881</v>
+      </c>
+      <c r="E28">
+        <v>0.06849545555824504</v>
+      </c>
+      <c r="F28">
+        <v>0.009257329556397164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01296882203840819</v>
+        <v>0.02772154112636325</v>
       </c>
       <c r="C29">
-        <v>0.02810910658811754</v>
+        <v>-0.008161949577150492</v>
       </c>
       <c r="D29">
-        <v>-0.0111969463217417</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03265485054797729</v>
+      </c>
+      <c r="E29">
+        <v>-0.01139101081352636</v>
+      </c>
+      <c r="F29">
+        <v>-0.0101931304912314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01596315044089916</v>
+        <v>0.06162595464284972</v>
       </c>
       <c r="C30">
-        <v>0.1267011965901489</v>
+        <v>-0.003956878749319197</v>
       </c>
       <c r="D30">
-        <v>0.02211180186129568</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08760104414052783</v>
+      </c>
+      <c r="E30">
+        <v>-0.01890059132315625</v>
+      </c>
+      <c r="F30">
+        <v>0.0828615476001066</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02190143274405261</v>
+        <v>0.04997621658106745</v>
       </c>
       <c r="C31">
-        <v>0.03694837655171244</v>
+        <v>-0.01530291884296826</v>
       </c>
       <c r="D31">
-        <v>-0.004969775505879875</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02484230604333421</v>
+      </c>
+      <c r="E31">
+        <v>-0.0275221472397089</v>
+      </c>
+      <c r="F31">
+        <v>-0.002743164741751526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.007426941377991954</v>
+        <v>0.04989501273988488</v>
       </c>
       <c r="C32">
-        <v>0.06241881895033531</v>
+        <v>0.001289318759143501</v>
       </c>
       <c r="D32">
-        <v>-0.0328548666320883</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03579182167099563</v>
+      </c>
+      <c r="E32">
+        <v>-0.03088428673987366</v>
+      </c>
+      <c r="F32">
+        <v>0.002404516776056584</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02293476005945252</v>
+        <v>0.08932354302271224</v>
       </c>
       <c r="C33">
-        <v>0.1135134213667173</v>
+        <v>-0.008251049973425762</v>
       </c>
       <c r="D33">
-        <v>0.02199456759025461</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0986381482178125</v>
+      </c>
+      <c r="E33">
+        <v>-0.04412582626145126</v>
+      </c>
+      <c r="F33">
+        <v>0.0357575788898143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02638060987070685</v>
+        <v>0.06842058590385958</v>
       </c>
       <c r="C34">
-        <v>0.09620454887078084</v>
+        <v>-0.01129945524147158</v>
       </c>
       <c r="D34">
-        <v>0.01363020178337039</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1065545261499338</v>
+      </c>
+      <c r="E34">
+        <v>-0.03453201988565083</v>
+      </c>
+      <c r="F34">
+        <v>0.03361844834229964</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.003882388991357331</v>
+        <v>0.02410782007469708</v>
       </c>
       <c r="C35">
-        <v>0.01710773964220665</v>
+        <v>-0.00243931805476399</v>
       </c>
       <c r="D35">
-        <v>0.0009756128030778247</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01192352389981248</v>
+      </c>
+      <c r="E35">
+        <v>-0.01165350106142076</v>
+      </c>
+      <c r="F35">
+        <v>0.001018006035752967</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01089974359771939</v>
+        <v>0.0275812745950595</v>
       </c>
       <c r="C36">
-        <v>0.02836841021486815</v>
+        <v>-0.007208469020986204</v>
       </c>
       <c r="D36">
-        <v>0.01072105803072494</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03944161423762543</v>
+      </c>
+      <c r="E36">
+        <v>-0.01617704807348333</v>
+      </c>
+      <c r="F36">
+        <v>0.01522874709059571</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0004216593313068045</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0001001712321730119</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0003405447171655372</v>
+      </c>
+      <c r="E37">
+        <v>0.0003310197671503654</v>
+      </c>
+      <c r="F37">
+        <v>0.0007605046990331402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0005729264089050584</v>
+        <v>0.001261382224028473</v>
       </c>
       <c r="C38">
-        <v>0.00386220958384843</v>
+        <v>-0.0001851636226997065</v>
       </c>
       <c r="D38">
-        <v>-0.00135484859487136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0007446626443010824</v>
+      </c>
+      <c r="E38">
+        <v>-0.0009178165270168303</v>
+      </c>
+      <c r="F38">
+        <v>-0.0006222269675298741</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04229971265705953</v>
+        <v>0.105708640921129</v>
       </c>
       <c r="C39">
-        <v>0.1712553094055373</v>
+        <v>-0.01654057880360525</v>
       </c>
       <c r="D39">
-        <v>0.0461053371055115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1538847988613167</v>
+      </c>
+      <c r="E39">
+        <v>-0.05910435101284655</v>
+      </c>
+      <c r="F39">
+        <v>0.02813956927899631</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01116651482704827</v>
+        <v>0.04105013870054797</v>
       </c>
       <c r="C40">
-        <v>0.01408718953737762</v>
+        <v>-0.007226697413804831</v>
       </c>
       <c r="D40">
-        <v>-0.009662550846965491</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03177054601071796</v>
+      </c>
+      <c r="E40">
+        <v>-0.002775941062697853</v>
+      </c>
+      <c r="F40">
+        <v>-0.01598290984544053</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01131968230481674</v>
+        <v>0.02756176032290165</v>
       </c>
       <c r="C41">
-        <v>0.02000863865143208</v>
+        <v>-0.006616534714720976</v>
       </c>
       <c r="D41">
-        <v>-0.01738873617586929</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01075950629432404</v>
+      </c>
+      <c r="E41">
+        <v>-0.01277798538408467</v>
+      </c>
+      <c r="F41">
+        <v>-0.006766973546403517</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01327316706203915</v>
+        <v>0.04044480926018223</v>
       </c>
       <c r="C43">
-        <v>0.02761821532200389</v>
+        <v>-0.006741961239084542</v>
       </c>
       <c r="D43">
-        <v>-0.01102965674422674</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02084814417997146</v>
+      </c>
+      <c r="E43">
+        <v>-0.02517108416652731</v>
+      </c>
+      <c r="F43">
+        <v>-0.01258097964578221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.03160971118699142</v>
+        <v>0.08031736115411606</v>
       </c>
       <c r="C44">
-        <v>0.1305291157213876</v>
+        <v>-0.02054261915144657</v>
       </c>
       <c r="D44">
-        <v>0.003093453334024342</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09864861820964391</v>
+      </c>
+      <c r="E44">
+        <v>-0.06590465096749089</v>
+      </c>
+      <c r="F44">
+        <v>0.1570632472914153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.00546978380311141</v>
+        <v>0.02334223165521683</v>
       </c>
       <c r="C46">
-        <v>0.005958844734850058</v>
+        <v>-0.003716331534651507</v>
       </c>
       <c r="D46">
-        <v>-0.01821536460692081</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01331148273966421</v>
+      </c>
+      <c r="E46">
+        <v>-0.02212202673143184</v>
+      </c>
+      <c r="F46">
+        <v>-0.004380125280518365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01023871974330462</v>
+        <v>0.05129341684030941</v>
       </c>
       <c r="C47">
-        <v>0.0324925299251206</v>
+        <v>-0.003620215413476737</v>
       </c>
       <c r="D47">
-        <v>-0.02795050760011162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01379360540587992</v>
+      </c>
+      <c r="E47">
+        <v>-0.02358034974405421</v>
+      </c>
+      <c r="F47">
+        <v>-0.03359113371443582</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01187637474206444</v>
+        <v>0.0495850093881498</v>
       </c>
       <c r="C48">
-        <v>0.05051955555248499</v>
+        <v>-0.002630584933452355</v>
       </c>
       <c r="D48">
-        <v>0.01115006722726063</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04999739414948032</v>
+      </c>
+      <c r="E48">
+        <v>0.006463880737142179</v>
+      </c>
+      <c r="F48">
+        <v>0.009357696124856218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.03770494160151872</v>
+        <v>0.1994281042854811</v>
       </c>
       <c r="C49">
-        <v>0.2039825764476079</v>
+        <v>-0.01868721452291396</v>
       </c>
       <c r="D49">
-        <v>-0.06724243280142972</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.008227579158235994</v>
+      </c>
+      <c r="E49">
+        <v>-0.03084375191830831</v>
+      </c>
+      <c r="F49">
+        <v>0.03843092892551005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01853019424803322</v>
+        <v>0.05070262868828478</v>
       </c>
       <c r="C50">
-        <v>0.04134740725483787</v>
+        <v>-0.01128196515537006</v>
       </c>
       <c r="D50">
-        <v>-0.01238855109755409</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02337255208182488</v>
+      </c>
+      <c r="E50">
+        <v>-0.0291523517561227</v>
+      </c>
+      <c r="F50">
+        <v>0.008536749359116923</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0004655669564086874</v>
+        <v>0.000953474857052312</v>
       </c>
       <c r="C51">
-        <v>0.002511236888445414</v>
+        <v>-0.0002716145141072351</v>
       </c>
       <c r="D51">
-        <v>-0.003336540630049047</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0007319023267792418</v>
+      </c>
+      <c r="E51">
+        <v>-4.301811221877923e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.002814253501136538</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.03050102314497933</v>
+        <v>0.146130526357558</v>
       </c>
       <c r="C52">
-        <v>0.1504129718182468</v>
+        <v>-0.01546322460877432</v>
       </c>
       <c r="D52">
-        <v>0.01839794148502408</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04580441574773831</v>
+      </c>
+      <c r="E52">
+        <v>-0.02086268422657876</v>
+      </c>
+      <c r="F52">
+        <v>0.04091616038752417</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03180106343002667</v>
+        <v>0.1726710575347596</v>
       </c>
       <c r="C53">
-        <v>0.1711059093215655</v>
+        <v>-0.0186914958162901</v>
       </c>
       <c r="D53">
-        <v>-0.01714776904108261</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005496570401132605</v>
+      </c>
+      <c r="E53">
+        <v>-0.0314295767038327</v>
+      </c>
+      <c r="F53">
+        <v>0.07261887113399305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01567058466694601</v>
+        <v>0.0223013826321696</v>
       </c>
       <c r="C54">
-        <v>0.04443850762107617</v>
+        <v>-0.01275043339518857</v>
       </c>
       <c r="D54">
-        <v>-0.01274626126020301</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03353860324951424</v>
+      </c>
+      <c r="E54">
+        <v>-0.01865929620092743</v>
+      </c>
+      <c r="F54">
+        <v>-0.003461452016630189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02439418038483803</v>
+        <v>0.1140840705094323</v>
       </c>
       <c r="C55">
-        <v>0.08792938836132169</v>
+        <v>-0.0164839379158158</v>
       </c>
       <c r="D55">
-        <v>0.001701137912309543</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009201704099251265</v>
+      </c>
+      <c r="E55">
+        <v>-0.02798329090766694</v>
+      </c>
+      <c r="F55">
+        <v>0.04669225090483293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03260093201207983</v>
+        <v>0.1770983353784913</v>
       </c>
       <c r="C56">
-        <v>0.1601879708931882</v>
+        <v>-0.0159976651476492</v>
       </c>
       <c r="D56">
-        <v>-0.02987445759087708</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001473180070169685</v>
+      </c>
+      <c r="E56">
+        <v>-0.03617361466624857</v>
+      </c>
+      <c r="F56">
+        <v>0.0510327590387884</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01267881845012951</v>
+        <v>0.04665652413330025</v>
       </c>
       <c r="C58">
-        <v>0.04861533864894937</v>
+        <v>-0.000983241119593735</v>
       </c>
       <c r="D58">
-        <v>0.00443165202286436</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06715877250333238</v>
+      </c>
+      <c r="E58">
+        <v>-0.02771312603099656</v>
+      </c>
+      <c r="F58">
+        <v>-0.03652127545171374</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01229935662912982</v>
+        <v>0.1671346369591203</v>
       </c>
       <c r="C59">
-        <v>0.08674888553870574</v>
+        <v>-0.01949263039619827</v>
       </c>
       <c r="D59">
-        <v>-0.1987539823314862</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2180076026632562</v>
+      </c>
+      <c r="E59">
+        <v>0.04549790285107065</v>
+      </c>
+      <c r="F59">
+        <v>-0.03517288276534982</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.02553623018349301</v>
+        <v>0.2311655116216777</v>
       </c>
       <c r="C60">
-        <v>0.2706648832975633</v>
+        <v>0.00262424268093368</v>
       </c>
       <c r="D60">
-        <v>-0.004148021329727285</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04203957526098878</v>
+      </c>
+      <c r="E60">
+        <v>-0.01120262022684877</v>
+      </c>
+      <c r="F60">
+        <v>-0.006543500130603561</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.02980767833968389</v>
+        <v>0.08227336941654187</v>
       </c>
       <c r="C61">
-        <v>0.1276298807502717</v>
+        <v>-0.01258740428526348</v>
       </c>
       <c r="D61">
-        <v>0.01715153244250665</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1156561043780779</v>
+      </c>
+      <c r="E61">
+        <v>-0.03842091357393568</v>
+      </c>
+      <c r="F61">
+        <v>0.011190815563526</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03452065800211187</v>
+        <v>0.1707118213184327</v>
       </c>
       <c r="C62">
-        <v>0.1645339268010543</v>
+        <v>-0.01943736856218366</v>
       </c>
       <c r="D62">
-        <v>-0.02435655182934122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.007182727584924348</v>
+      </c>
+      <c r="E62">
+        <v>-0.03561261153776761</v>
+      </c>
+      <c r="F62">
+        <v>0.03462584335613004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01213139984476928</v>
+        <v>0.04554579791614191</v>
       </c>
       <c r="C63">
-        <v>0.05585540516229619</v>
+        <v>-0.002531816856938326</v>
       </c>
       <c r="D63">
-        <v>0.001801375913294094</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05722692186736751</v>
+      </c>
+      <c r="E63">
+        <v>-0.02080185724584466</v>
+      </c>
+      <c r="F63">
+        <v>0.005823071618936505</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02346036918950468</v>
+        <v>0.1108321305205551</v>
       </c>
       <c r="C64">
-        <v>0.09958646204397623</v>
+        <v>-0.0118278760299536</v>
       </c>
       <c r="D64">
-        <v>-0.005974670234401827</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04145339719285165</v>
+      </c>
+      <c r="E64">
+        <v>-0.02345426239803836</v>
+      </c>
+      <c r="F64">
+        <v>0.02571968777350529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.03801672321437025</v>
+        <v>0.1482005161333905</v>
       </c>
       <c r="C65">
-        <v>0.1045129527755013</v>
+        <v>-0.0323032947455075</v>
       </c>
       <c r="D65">
-        <v>-0.01756167901845988</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04260937519649025</v>
+      </c>
+      <c r="E65">
+        <v>-0.00334456566327176</v>
+      </c>
+      <c r="F65">
+        <v>0.03997614155859692</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04110201538862265</v>
+        <v>0.1252643356234805</v>
       </c>
       <c r="C66">
-        <v>0.200103981354238</v>
+        <v>-0.01463378033956059</v>
       </c>
       <c r="D66">
-        <v>0.02534375912622875</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1423009730063714</v>
+      </c>
+      <c r="E66">
+        <v>-0.06661333892602654</v>
+      </c>
+      <c r="F66">
+        <v>0.03063775326951613</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01492633387055555</v>
+        <v>0.06086779084890433</v>
       </c>
       <c r="C67">
-        <v>0.06464519897106792</v>
+        <v>-0.003270285332060087</v>
       </c>
       <c r="D67">
-        <v>0.002160252677829501</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05618076413898412</v>
+      </c>
+      <c r="E67">
+        <v>-0.01794469830877064</v>
+      </c>
+      <c r="F67">
+        <v>-0.03383223202316485</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01502224488402865</v>
+        <v>0.1164165116775164</v>
       </c>
       <c r="C68">
-        <v>0.02462257351809387</v>
+        <v>-0.02904145902392907</v>
       </c>
       <c r="D68">
-        <v>-0.1750596086336212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2599015908243708</v>
+      </c>
+      <c r="E68">
+        <v>0.0865448566298031</v>
+      </c>
+      <c r="F68">
+        <v>0.005556996237989258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.005636407128696689</v>
+        <v>0.03976642556470383</v>
       </c>
       <c r="C69">
-        <v>0.03138913002462304</v>
+        <v>-0.001313270892014572</v>
       </c>
       <c r="D69">
-        <v>-0.005985756330683687</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007412772632653947</v>
+      </c>
+      <c r="E69">
+        <v>-0.02324997065766585</v>
+      </c>
+      <c r="F69">
+        <v>-0.001131089358384153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0009944482261622417</v>
+        <v>0.06576209145940021</v>
       </c>
       <c r="C70">
-        <v>0.03307876803671085</v>
+        <v>0.02789442298863358</v>
       </c>
       <c r="D70">
-        <v>-0.00376077345954755</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02545536163984114</v>
+      </c>
+      <c r="E70">
+        <v>0.04003199413949719</v>
+      </c>
+      <c r="F70">
+        <v>-0.1858785309528822</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.01882644007990804</v>
+        <v>0.1366224954466656</v>
       </c>
       <c r="C71">
-        <v>0.02927031542862144</v>
+        <v>-0.03401105935091898</v>
       </c>
       <c r="D71">
-        <v>-0.1849134870769323</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2741886627773473</v>
+      </c>
+      <c r="E71">
+        <v>0.09661672602809426</v>
+      </c>
+      <c r="F71">
+        <v>0.01240748308798676</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03599493940448407</v>
+        <v>0.1420406454201343</v>
       </c>
       <c r="C72">
-        <v>0.1146795243356633</v>
+        <v>-0.02590467703881861</v>
       </c>
       <c r="D72">
-        <v>-0.03753178209266243</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.001137184397246977</v>
+      </c>
+      <c r="E72">
+        <v>-0.03881355207935711</v>
+      </c>
+      <c r="F72">
+        <v>0.03525088856425273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03401198624973723</v>
+        <v>0.2006984604270848</v>
       </c>
       <c r="C73">
-        <v>0.2039930471644803</v>
+        <v>-0.0126748344117923</v>
       </c>
       <c r="D73">
-        <v>-0.06329540108629932</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.017167959862306</v>
+      </c>
+      <c r="E73">
+        <v>-0.06430149004284852</v>
+      </c>
+      <c r="F73">
+        <v>0.03833594946519624</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.01971626757953984</v>
+        <v>0.09496717047692321</v>
       </c>
       <c r="C74">
-        <v>0.1082119017448329</v>
+        <v>-0.01318675591050116</v>
       </c>
       <c r="D74">
-        <v>-0.02252908249243844</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01783068360410887</v>
+      </c>
+      <c r="E74">
+        <v>-0.04451149721554255</v>
+      </c>
+      <c r="F74">
+        <v>0.05623119432816683</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.0412468338638363</v>
+        <v>0.1283362868723239</v>
       </c>
       <c r="C75">
-        <v>0.1309944538740099</v>
+        <v>-0.02761914678979619</v>
       </c>
       <c r="D75">
-        <v>-0.0330116692957961</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03062818180239758</v>
+      </c>
+      <c r="E75">
+        <v>-0.0585785656072088</v>
+      </c>
+      <c r="F75">
+        <v>0.0176784914967953</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0003247267045535481</v>
+        <v>0.0008668098767953583</v>
       </c>
       <c r="C76">
-        <v>0.002781628365798018</v>
+        <v>-0.0002373835364162775</v>
       </c>
       <c r="D76">
-        <v>-0.00334502698572619</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0006760399527160093</v>
+      </c>
+      <c r="E76">
+        <v>-0.0002625131046511707</v>
+      </c>
+      <c r="F76">
+        <v>0.0007100775385765125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02476767783370768</v>
+        <v>0.08475047226648802</v>
       </c>
       <c r="C77">
-        <v>0.09947909722430733</v>
+        <v>-0.00864338591518663</v>
       </c>
       <c r="D77">
-        <v>0.05243970431783575</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1128304959833022</v>
+      </c>
+      <c r="E77">
+        <v>-0.0372588650324728</v>
+      </c>
+      <c r="F77">
+        <v>0.03026696836459585</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.05462994700410858</v>
+        <v>0.09983176855696223</v>
       </c>
       <c r="C78">
-        <v>0.1369217977382736</v>
+        <v>-0.03935986800495511</v>
       </c>
       <c r="D78">
-        <v>-0.01711401307967739</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.117231633205595</v>
+      </c>
+      <c r="E78">
+        <v>-0.07521763913768942</v>
+      </c>
+      <c r="F78">
+        <v>0.04514882938967854</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03626896224018304</v>
+        <v>0.1647181921843621</v>
       </c>
       <c r="C79">
-        <v>0.1445199750648627</v>
+        <v>-0.02219131710888429</v>
       </c>
       <c r="D79">
-        <v>-0.03674173719717148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01585367179238374</v>
+      </c>
+      <c r="E79">
+        <v>-0.0468031669284401</v>
+      </c>
+      <c r="F79">
+        <v>0.01097853295280345</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.008221901392330028</v>
+        <v>0.08241295517079508</v>
       </c>
       <c r="C80">
-        <v>0.08259121335189051</v>
+        <v>0.0006095024664404453</v>
       </c>
       <c r="D80">
-        <v>-0.004169791450607659</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05711614299416616</v>
+      </c>
+      <c r="E80">
+        <v>-0.03707381175498597</v>
+      </c>
+      <c r="F80">
+        <v>-0.02437483440750999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04290696611311432</v>
+        <v>0.1216864317166659</v>
       </c>
       <c r="C81">
-        <v>0.1420239907635137</v>
+        <v>-0.03138526794378084</v>
       </c>
       <c r="D81">
-        <v>-0.01885658859534933</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01625904595104524</v>
+      </c>
+      <c r="E81">
+        <v>-0.05858826513297243</v>
+      </c>
+      <c r="F81">
+        <v>0.01606000004886077</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.03759675379617132</v>
+        <v>0.1664025243984747</v>
       </c>
       <c r="C82">
-        <v>0.1656310599466247</v>
+        <v>-0.02393403239585203</v>
       </c>
       <c r="D82">
-        <v>-0.03415512848029113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004146187614776699</v>
+      </c>
+      <c r="E82">
+        <v>-0.02837671028985155</v>
+      </c>
+      <c r="F82">
+        <v>0.07933275839509198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01818629480575723</v>
+        <v>0.06070911452848755</v>
       </c>
       <c r="C83">
-        <v>0.06708098477017206</v>
+        <v>-0.003189271994983095</v>
       </c>
       <c r="D83">
-        <v>-0.002111404560048355</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05031119216559774</v>
+      </c>
+      <c r="E83">
+        <v>-0.004957525319298129</v>
+      </c>
+      <c r="F83">
+        <v>-0.03194958786780002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02653151183111519</v>
+        <v>0.05809398341925274</v>
       </c>
       <c r="C84">
-        <v>0.07862545074226814</v>
+        <v>-0.01105420607159864</v>
       </c>
       <c r="D84">
-        <v>0.009113397619110458</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0653684896416532</v>
+      </c>
+      <c r="E84">
+        <v>-0.007963473272768532</v>
+      </c>
+      <c r="F84">
+        <v>0.003648226848144638</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.03754064211747287</v>
+        <v>0.1367308740661823</v>
       </c>
       <c r="C85">
-        <v>0.1202159626880146</v>
+        <v>-0.02747279557711143</v>
       </c>
       <c r="D85">
-        <v>-0.01951889204414139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01158776832986117</v>
+      </c>
+      <c r="E85">
+        <v>-0.03912913382112747</v>
+      </c>
+      <c r="F85">
+        <v>0.04546408706165745</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.007934404432258714</v>
+        <v>0.09373616452877527</v>
       </c>
       <c r="C86">
-        <v>0.09070075978818626</v>
+        <v>0.00631054610377032</v>
       </c>
       <c r="D86">
-        <v>-0.2339029461400639</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04136152512529102</v>
+      </c>
+      <c r="E86">
+        <v>-0.2115871587739833</v>
+      </c>
+      <c r="F86">
+        <v>-0.9084766160465192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.03853792249573346</v>
+        <v>0.09703672983180438</v>
       </c>
       <c r="C87">
-        <v>0.1058161156229017</v>
+        <v>-0.02047796870910528</v>
       </c>
       <c r="D87">
-        <v>0.05679964268661207</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09484365055517494</v>
+      </c>
+      <c r="E87">
+        <v>0.05148956896154032</v>
+      </c>
+      <c r="F87">
+        <v>0.05315014723881793</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01304800570255735</v>
+        <v>0.06083307937844937</v>
       </c>
       <c r="C88">
-        <v>0.05919230160149318</v>
+        <v>-0.002428472998917788</v>
       </c>
       <c r="D88">
-        <v>0.00533909331429892</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05021486278302445</v>
+      </c>
+      <c r="E88">
+        <v>-0.02484945693060026</v>
+      </c>
+      <c r="F88">
+        <v>0.01210976311738375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.0005272870658243069</v>
+        <v>0.1344135343591076</v>
       </c>
       <c r="C89">
-        <v>0.04962568593236286</v>
+        <v>-0.01164473578822491</v>
       </c>
       <c r="D89">
-        <v>-0.2238567861980413</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2518939445155772</v>
+      </c>
+      <c r="E89">
+        <v>0.09152231331654308</v>
+      </c>
+      <c r="F89">
+        <v>-0.008397741900975248</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01762416635173438</v>
+        <v>0.1497230700036903</v>
       </c>
       <c r="C90">
-        <v>0.03000013497509115</v>
+        <v>-0.02977524812924596</v>
       </c>
       <c r="D90">
-        <v>-0.1949642040055421</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2679889646486961</v>
+      </c>
+      <c r="E90">
+        <v>0.1118127890711653</v>
+      </c>
+      <c r="F90">
+        <v>-0.001830770757325532</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02317488258581944</v>
+        <v>0.1201304721286786</v>
       </c>
       <c r="C91">
-        <v>0.09900986316822599</v>
+        <v>-0.01845069168641441</v>
       </c>
       <c r="D91">
-        <v>-0.02708152641076337</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01301251674140419</v>
+      </c>
+      <c r="E91">
+        <v>-0.05664808719125774</v>
+      </c>
+      <c r="F91">
+        <v>-0.003365737517281391</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.0020796550259033</v>
+        <v>0.1475315373563546</v>
       </c>
       <c r="C92">
-        <v>0.04479488554386735</v>
+        <v>-0.02189763354342525</v>
       </c>
       <c r="D92">
-        <v>-0.203038099396671</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2917425284270312</v>
+      </c>
+      <c r="E92">
+        <v>0.1010936337610018</v>
+      </c>
+      <c r="F92">
+        <v>-0.01373927375527647</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01423703727951821</v>
+        <v>0.1517895377143541</v>
       </c>
       <c r="C93">
-        <v>0.04334088267481111</v>
+        <v>-0.02577664081982728</v>
       </c>
       <c r="D93">
-        <v>-0.2111449527530629</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2678202810808531</v>
+      </c>
+      <c r="E93">
+        <v>0.07757488137371908</v>
+      </c>
+      <c r="F93">
+        <v>0.002822546687659884</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04103389429550355</v>
+        <v>0.1310577201854365</v>
       </c>
       <c r="C94">
-        <v>0.1515507265833599</v>
+        <v>-0.0245505580343619</v>
       </c>
       <c r="D94">
-        <v>-0.02730703345005522</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04308554236787052</v>
+      </c>
+      <c r="E94">
+        <v>-0.05821576801687913</v>
+      </c>
+      <c r="F94">
+        <v>0.03566494567419353</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02549700056784644</v>
+        <v>0.1275199678377091</v>
       </c>
       <c r="C95">
-        <v>0.1452640592413038</v>
+        <v>-0.00442455454128473</v>
       </c>
       <c r="D95">
-        <v>0.01059671654108894</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09159780237612179</v>
+      </c>
+      <c r="E95">
+        <v>-0.04657468697378627</v>
+      </c>
+      <c r="F95">
+        <v>-0.007186037177384956</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9757153627373463</v>
+        <v>0.1050803446007042</v>
       </c>
       <c r="C96">
-        <v>0.1994603458173538</v>
+        <v>0.987943903399807</v>
       </c>
       <c r="D96">
-        <v>-0.02386137827654603</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04137892392182604</v>
+      </c>
+      <c r="E96">
+        <v>-0.05616724767929324</v>
+      </c>
+      <c r="F96">
+        <v>0.0424397929192975</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.004672471686944785</v>
+        <v>0.1931321220293285</v>
       </c>
       <c r="C97">
-        <v>0.1620188125786665</v>
+        <v>0.008022042858859371</v>
       </c>
       <c r="D97">
-        <v>-0.1040465213036123</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01594551470229914</v>
+      </c>
+      <c r="E97">
+        <v>-0.01894684263730557</v>
+      </c>
+      <c r="F97">
+        <v>-0.08984309089149141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02574956868287115</v>
+        <v>0.2044028147930422</v>
       </c>
       <c r="C98">
-        <v>0.1957096013261702</v>
+        <v>-0.007380156854834288</v>
       </c>
       <c r="D98">
-        <v>-0.0281502449409421</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0107025313898452</v>
+      </c>
+      <c r="E98">
+        <v>0.0854833518445845</v>
+      </c>
+      <c r="F98">
+        <v>-0.09599496807172007</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.003881174156451975</v>
+        <v>0.05539385748910324</v>
       </c>
       <c r="C99">
-        <v>0.05575868260994676</v>
+        <v>0.004570298463524599</v>
       </c>
       <c r="D99">
-        <v>-0.02062521909467846</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03963331359927693</v>
+      </c>
+      <c r="E99">
+        <v>-0.0232171238148846</v>
+      </c>
+      <c r="F99">
+        <v>0.001317539437013471</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.00768193418613889</v>
+        <v>0.1252275394822012</v>
       </c>
       <c r="C100">
-        <v>0.2082567213842183</v>
+        <v>0.05329412116066248</v>
       </c>
       <c r="D100">
-        <v>0.748390283906526</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3455685956914926</v>
+      </c>
+      <c r="E100">
+        <v>0.888837398830979</v>
+      </c>
+      <c r="F100">
+        <v>-0.139399225650068</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01298487159125016</v>
+        <v>0.02764470839993196</v>
       </c>
       <c r="C101">
-        <v>0.02813242107258163</v>
+        <v>-0.008171278462318191</v>
       </c>
       <c r="D101">
-        <v>-0.01105707178833654</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03235930816717624</v>
+      </c>
+      <c r="E101">
+        <v>-0.01083985997845925</v>
+      </c>
+      <c r="F101">
+        <v>-0.01147637986301417</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
